--- a/Flapp_Assets/Logboeken/Logboek_Tibo.xlsx
+++ b/Flapp_Assets/Logboeken/Logboek_Tibo.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tibo\source\repos\Project_Flapp\Flapp_Assets\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9629821-8A36-4A9D-9F19-7EE6C93E0C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C9D17B-9268-4015-8BC8-B5A0F84F0A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43980" yWindow="1905" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Duur</t>
   </si>
@@ -109,12 +109,15 @@
   </si>
   <si>
     <t>Afwerken project</t>
+  </si>
+  <si>
+    <t>UnitTest + Documentatie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,11 +462,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,8 +692,16 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>SUM(A2:A27)</f>
-        <v>48.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>SUM(A2:A28)</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
